--- a/Bill Design.xlsx
+++ b/Bill Design.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaknanda\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="tabBil" sheetId="1" r:id="rId1"/>
-    <sheet name="tabBilLine" sheetId="2" r:id="rId2"/>
-    <sheet name="tabBil_ASTRA" sheetId="3" r:id="rId3"/>
-    <sheet name="tabBilLine_ASTRA" sheetId="4" r:id="rId4"/>
-    <sheet name="Sale Bill Screen " sheetId="5" r:id="rId5"/>
+    <sheet name="tabBil_ASTRA" sheetId="3" r:id="rId2"/>
+    <sheet name="tabBilLine_ASTRA" sheetId="4" r:id="rId3"/>
+    <sheet name="Sale Bill Screen " sheetId="5" r:id="rId4"/>
+    <sheet name="tabBilLine" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="277">
   <si>
     <t>ACE</t>
   </si>
@@ -806,9 +801,6 @@
     <t>tcdPchsOrdrDate</t>
   </si>
   <si>
-    <t>tcsBilLineHasSupotDoc</t>
-  </si>
-  <si>
     <t>tciBilPrprdUsrD</t>
   </si>
   <si>
@@ -852,16 +844,35 @@
   </si>
   <si>
     <t>tcdBilAckDocDate</t>
+  </si>
+  <si>
+    <t>Bill Types</t>
+  </si>
+  <si>
+    <t>dec(10,5)(9)</t>
+  </si>
+  <si>
+    <t>tabItem.tciItemF</t>
+  </si>
+  <si>
+    <t>tcbBilLineHasSupotDoc</t>
+  </si>
+  <si>
+    <t>for purchase ''</t>
+  </si>
+  <si>
+    <t>R:Recover(someone else will pay)
+A:absorb(Perchase person will pay)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,11 +888,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,7 +907,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,7 +915,7 @@
       <sz val="11"/>
       <color rgb="FF1D41D5"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,60 +923,60 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1145,11 +1163,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1169,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,10 +1217,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,22 +1232,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,112 +1256,112 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,14 +1376,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1648,11 +1673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -1661,10 +1686,11 @@
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" customWidth="1"/>
@@ -1679,333 +1705,343 @@
     <col min="21" max="22" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="55">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="55">
-        <v>1</v>
-      </c>
-      <c r="E1" s="55" t="s">
+    <row r="1" spans="1:22" ht="12" customHeight="1" thickBot="1">
+      <c r="E1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1" thickTop="1">
+      <c r="A2" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55">
-        <v>0</v>
-      </c>
-      <c r="I1" s="55">
-        <v>0</v>
-      </c>
-      <c r="J1" s="55" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55">
-        <v>0</v>
-      </c>
-      <c r="P1" s="59">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59">
         <v>45454</v>
       </c>
-      <c r="Q1" s="55">
-        <v>1</v>
-      </c>
-      <c r="R1" s="55" t="s">
+      <c r="Q2" s="55">
+        <v>1</v>
+      </c>
+      <c r="R2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="55">
+      <c r="S2" s="55">
         <v>2731</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="55">
-        <v>1</v>
-      </c>
-      <c r="V1" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="12" customHeight="1">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="56">
+      <c r="U2" s="55">
+        <v>1</v>
+      </c>
+      <c r="V2" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="12" customHeight="1">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56">
         <v>2</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56">
-        <v>0</v>
-      </c>
-      <c r="I2" s="56">
-        <v>0</v>
-      </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56">
+        <v>0</v>
+      </c>
+      <c r="I3" s="56">
+        <v>0</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56">
-        <v>0</v>
-      </c>
-      <c r="P2" s="60">
+      <c r="N3" s="56"/>
+      <c r="O3" s="56">
+        <v>0</v>
+      </c>
+      <c r="P3" s="60">
         <v>45454</v>
       </c>
-      <c r="Q2" s="56">
-        <v>1</v>
-      </c>
-      <c r="R2" s="56" t="s">
+      <c r="Q3" s="56">
+        <v>1</v>
+      </c>
+      <c r="R3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S3" s="56">
         <v>2732</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="56">
-        <v>1</v>
-      </c>
-      <c r="V2" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="12" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="U3" s="56">
+        <v>1</v>
+      </c>
+      <c r="V3" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-    </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1">
-      <c r="A4" s="56">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="56">
-        <v>3</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
-        <v>0</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="A5" s="56">
+        <v>1</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="56">
+        <v>3</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="56">
-        <v>0</v>
-      </c>
-      <c r="P4" s="60">
+      <c r="O5" s="56">
+        <v>0</v>
+      </c>
+      <c r="P5" s="60">
         <v>45454</v>
       </c>
-      <c r="Q4" s="56">
-        <v>1</v>
-      </c>
-      <c r="R4" s="56" t="s">
+      <c r="Q5" s="56">
+        <v>1</v>
+      </c>
+      <c r="R5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="56">
+      <c r="S5" s="56">
         <v>2733</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="56">
-        <v>1</v>
-      </c>
-      <c r="V4" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="56">
+        <v>1</v>
+      </c>
+      <c r="V5" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1">
-      <c r="A6" s="56">
-        <v>1</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1">
+      <c r="A7" s="56">
+        <v>1</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56">
         <v>4</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
-        <v>0</v>
-      </c>
-      <c r="J6" s="56" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56" t="s">
+      <c r="M7" s="56"/>
+      <c r="N7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="56">
-        <v>0</v>
-      </c>
-      <c r="P6" s="60">
+      <c r="O7" s="56">
+        <v>0</v>
+      </c>
+      <c r="P7" s="60">
         <v>45454</v>
       </c>
-      <c r="Q6" s="56">
-        <v>1</v>
-      </c>
-      <c r="R6" s="56" t="s">
+      <c r="Q7" s="56">
+        <v>1</v>
+      </c>
+      <c r="R7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="56">
+      <c r="S7" s="56">
         <v>2734</v>
       </c>
-      <c r="T6" s="56" t="s">
+      <c r="T7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="56">
-        <v>1</v>
-      </c>
-      <c r="V6" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
+      <c r="U7" s="56">
+        <v>1</v>
+      </c>
+      <c r="V7" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="12" customHeight="1">
       <c r="A8" s="56"/>
@@ -2013,9 +2049,11 @@
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="56"/>
+        <v>265</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -2039,9 +2077,11 @@
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="56"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -2065,9 +2105,11 @@
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="56"/>
+        <v>266</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -2091,9 +2133,11 @@
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="56"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -2117,15 +2161,15 @@
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="56"/>
+        <v>267</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="57" t="s">
-        <v>28</v>
-      </c>
+      <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
@@ -2144,14 +2188,18 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="J13" s="57" t="s">
+        <v>28</v>
+      </c>
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
       <c r="M13" s="56"/>
@@ -2170,10 +2218,12 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="56"/>
+      <c r="E14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -2192,184 +2242,152 @@
       <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" ht="12" customHeight="1">
-      <c r="A15" s="56">
-        <v>1</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="56">
-        <v>7</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>30</v>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="72" t="s">
+        <v>268</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G15" s="56"/>
-      <c r="H15" s="56">
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
-        <v>0</v>
-      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="56">
-        <v>0</v>
-      </c>
-      <c r="P15" s="60">
+      <c r="O15" s="56"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+    </row>
+    <row r="16" spans="1:22" ht="12" customHeight="1">
+      <c r="A16" s="56">
+        <v>1</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="56">
+        <v>7</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="60">
         <v>45454</v>
       </c>
-      <c r="Q15" s="56">
-        <v>1</v>
-      </c>
-      <c r="R15" s="56" t="s">
+      <c r="Q16" s="56">
+        <v>1</v>
+      </c>
+      <c r="R16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S16" s="56">
         <v>2737</v>
       </c>
-      <c r="T15" s="56" t="s">
+      <c r="T16" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="56">
-        <v>1</v>
-      </c>
-      <c r="V15" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="55">
-        <v>1</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="U16" s="56">
+        <v>1</v>
+      </c>
+      <c r="V16" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="55">
+        <v>1</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="55">
         <v>8</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E17" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55">
-        <v>0</v>
-      </c>
-      <c r="I16" s="55">
-        <v>0</v>
-      </c>
-      <c r="J16" s="55" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
+        <v>0</v>
+      </c>
+      <c r="J17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55" t="s">
+      <c r="M17" s="55"/>
+      <c r="N17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P17" s="59">
         <v>45454</v>
       </c>
-      <c r="Q16" s="55">
-        <v>1</v>
-      </c>
-      <c r="R16" s="55" t="s">
+      <c r="Q17" s="55">
+        <v>1</v>
+      </c>
+      <c r="R17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S17" s="55">
         <v>2738</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U16" s="55">
-        <v>1</v>
-      </c>
-      <c r="V16" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="12" customHeight="1">
-      <c r="A17" s="56">
-        <v>1</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="56">
-        <v>9</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
-        <v>0</v>
-      </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="56">
-        <v>0</v>
-      </c>
-      <c r="P17" s="60">
-        <v>45454</v>
-      </c>
-      <c r="Q17" s="56">
-        <v>1</v>
-      </c>
-      <c r="R17" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="56">
-        <v>2739</v>
-      </c>
-      <c r="T17" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="56">
-        <v>1</v>
-      </c>
-      <c r="V17" s="56">
+      <c r="U17" s="55">
+        <v>1</v>
+      </c>
+      <c r="V17" s="55">
         <v>1</v>
       </c>
     </row>
@@ -2384,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="56">
@@ -2402,13 +2420,11 @@
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
       <c r="L18" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="56">
-        <v>43004</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="M18" s="56"/>
       <c r="N18" s="56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O18" s="56">
         <v>0</v>
@@ -2423,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="S18" s="56">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T18" s="56" t="s">
         <v>7</v>
@@ -2446,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>44</v>
@@ -2464,12 +2480,14 @@
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
       <c r="L19" s="56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M19" s="56">
-        <v>43466</v>
-      </c>
-      <c r="N19" s="56"/>
+        <v>43004</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>46</v>
+      </c>
       <c r="O19" s="56">
         <v>0</v>
       </c>
@@ -2483,7 +2501,7 @@
         <v>6</v>
       </c>
       <c r="S19" s="56">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="T19" s="56" t="s">
         <v>7</v>
@@ -2496,64 +2514,32 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="12" customHeight="1">
-      <c r="A20" s="56">
-        <v>1</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="56">
-        <v>11</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>49</v>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58" t="s">
+        <v>269</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G20" s="56"/>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>0</v>
-      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="56">
-        <v>43782</v>
-      </c>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="56">
-        <v>0</v>
-      </c>
-      <c r="P20" s="60">
-        <v>45454</v>
-      </c>
-      <c r="Q20" s="56">
-        <v>1</v>
-      </c>
-      <c r="R20" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="56">
-        <v>2741</v>
-      </c>
-      <c r="T20" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="56">
-        <v>1</v>
-      </c>
-      <c r="V20" s="56">
-        <v>1</v>
-      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="1:22" ht="12" customHeight="1">
       <c r="A21" s="56"/>
@@ -2564,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
@@ -2589,10 +2575,10 @@
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
       <c r="E22" s="58" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
@@ -2617,10 +2603,10 @@
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
@@ -2640,32 +2626,64 @@
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="1:22" ht="12" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="58" t="s">
-        <v>255</v>
+      <c r="A24" s="56">
+        <v>1</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="56">
+        <v>12</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>47</v>
       </c>
       <c r="F24" s="56" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="H24" s="56">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56">
+        <v>0</v>
+      </c>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="L24" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="56">
+        <v>43466</v>
+      </c>
       <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
+      <c r="O24" s="56">
+        <v>0</v>
+      </c>
+      <c r="P24" s="60">
+        <v>45454</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>1</v>
+      </c>
+      <c r="R24" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="56">
+        <v>2742</v>
+      </c>
+      <c r="T24" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="56">
+        <v>1</v>
+      </c>
+      <c r="V24" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="12" customHeight="1">
       <c r="A25" s="56">
@@ -2678,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="56">
@@ -2696,9 +2714,11 @@
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
       <c r="L25" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="M25" s="56">
+        <v>43782</v>
+      </c>
       <c r="N25" s="56"/>
       <c r="O25" s="56">
         <v>0</v>
@@ -2713,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="S25" s="56">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="T25" s="56" t="s">
         <v>7</v>
@@ -2736,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="56"/>
       <c r="H26" s="56">
@@ -2754,11 +2774,9 @@
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
       <c r="L26" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="56">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M26" s="56"/>
       <c r="N26" s="56"/>
       <c r="O26" s="56">
         <v>0</v>
@@ -2773,7 +2791,7 @@
         <v>6</v>
       </c>
       <c r="S26" s="56">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="T26" s="56" t="s">
         <v>7</v>
@@ -2785,63 +2803,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="55">
-        <v>1</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="55">
-        <v>18</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="55">
-        <v>0</v>
-      </c>
-      <c r="P27" s="59">
+    <row r="27" spans="1:22" ht="12" customHeight="1">
+      <c r="A27" s="56">
+        <v>1</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="56">
+        <v>14</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56">
+        <v>0</v>
+      </c>
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="56">
+        <v>1</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56">
+        <v>0</v>
+      </c>
+      <c r="P27" s="60">
         <v>45454</v>
       </c>
-      <c r="Q27" s="55">
-        <v>1</v>
-      </c>
-      <c r="R27" s="55" t="s">
+      <c r="Q27" s="56">
+        <v>1</v>
+      </c>
+      <c r="R27" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="55">
-        <v>2748</v>
-      </c>
-      <c r="T27" s="55" t="s">
+      <c r="S27" s="56">
+        <v>2744</v>
+      </c>
+      <c r="T27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="55">
-        <v>1</v>
-      </c>
-      <c r="V27" s="55">
+      <c r="U27" s="56">
+        <v>1</v>
+      </c>
+      <c r="V27" s="56">
         <v>1</v>
       </c>
     </row>
@@ -2856,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="55">
@@ -2874,11 +2892,11 @@
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M28" s="55"/>
       <c r="N28" s="55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O28" s="55">
         <v>0</v>
@@ -2893,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="S28" s="55">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="T28" s="55" t="s">
         <v>7</v>
@@ -2905,65 +2923,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="12" customHeight="1">
-      <c r="A29" s="56">
-        <v>1</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="56">
-        <v>20</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56">
-        <v>0</v>
-      </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56">
-        <v>0</v>
-      </c>
-      <c r="P29" s="60">
+    <row r="29" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="55">
+        <v>1</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="55">
+        <v>19</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0</v>
+      </c>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="55">
+        <v>0</v>
+      </c>
+      <c r="P29" s="59">
         <v>45454</v>
       </c>
-      <c r="Q29" s="56">
-        <v>1</v>
-      </c>
-      <c r="R29" s="56" t="s">
+      <c r="Q29" s="55">
+        <v>1</v>
+      </c>
+      <c r="R29" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="56">
-        <v>2750</v>
-      </c>
-      <c r="T29" s="56" t="s">
+      <c r="S29" s="55">
+        <v>2749</v>
+      </c>
+      <c r="T29" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U29" s="56">
-        <v>1</v>
-      </c>
-      <c r="V29" s="56">
+      <c r="U29" s="55">
+        <v>1</v>
+      </c>
+      <c r="V29" s="55">
         <v>1</v>
       </c>
     </row>
@@ -2978,13 +2994,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="56">
-        <v>21</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G30" s="56"/>
       <c r="H30" s="56">
@@ -2994,11 +3010,15 @@
         <v>0</v>
       </c>
       <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
+      <c r="K30" s="56" t="s">
+        <v>58</v>
+      </c>
       <c r="L30" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" s="56"/>
+        <v>71</v>
+      </c>
+      <c r="M30" s="56" t="s">
+        <v>60</v>
+      </c>
       <c r="N30" s="56"/>
       <c r="O30" s="56">
         <v>0</v>
@@ -3013,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="S30" s="56">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="T30" s="56" t="s">
         <v>7</v>
@@ -3036,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="56">
-        <v>22</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>257</v>
+        <v>21</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="F31" s="56" t="s">
         <v>17</v>
@@ -3051,12 +3071,10 @@
       <c r="I31" s="56">
         <v>0</v>
       </c>
-      <c r="J31" s="56" t="s">
-        <v>74</v>
-      </c>
+      <c r="J31" s="56"/>
       <c r="K31" s="56"/>
       <c r="L31" s="56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56"/>
@@ -3073,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="S31" s="56">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="T31" s="56" t="s">
         <v>7</v>
@@ -3096,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="56">
-        <v>23</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>76</v>
+        <v>22</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>17</v>
@@ -3116,7 +3134,7 @@
       </c>
       <c r="K32" s="56"/>
       <c r="L32" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -3133,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="S32" s="56">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="T32" s="56" t="s">
         <v>7</v>
@@ -3145,61 +3163,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="55">
-        <v>1</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="55">
-        <v>24</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="55" t="s">
+    <row r="33" spans="1:22" ht="12" customHeight="1">
+      <c r="A33" s="56">
+        <v>1</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="56">
+        <v>23</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55">
-        <v>0</v>
-      </c>
-      <c r="I33" s="55">
-        <v>0</v>
-      </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55">
-        <v>0</v>
-      </c>
-      <c r="P33" s="59">
+      <c r="G33" s="56"/>
+      <c r="H33" s="56">
+        <v>0</v>
+      </c>
+      <c r="I33" s="56">
+        <v>0</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56">
+        <v>0</v>
+      </c>
+      <c r="P33" s="60">
         <v>45454</v>
       </c>
-      <c r="Q33" s="55">
-        <v>1</v>
-      </c>
-      <c r="R33" s="55" t="s">
+      <c r="Q33" s="56">
+        <v>1</v>
+      </c>
+      <c r="R33" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="S33" s="55">
-        <v>2754</v>
-      </c>
-      <c r="T33" s="55" t="s">
+      <c r="S33" s="56">
+        <v>2753</v>
+      </c>
+      <c r="T33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="55">
-        <v>1</v>
-      </c>
-      <c r="V33" s="55">
+      <c r="U33" s="56">
+        <v>1</v>
+      </c>
+      <c r="V33" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3214,13 +3234,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="55">
-        <v>25</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="55">
@@ -3232,7 +3252,7 @@
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
       <c r="L34" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -3249,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="S34" s="55">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="T34" s="55" t="s">
         <v>7</v>
@@ -3272,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="55">
@@ -3290,7 +3310,7 @@
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
       <c r="L35" s="55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -3307,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="S35" s="55">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="T35" s="55" t="s">
         <v>7</v>
@@ -3319,93 +3339,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51" t="s">
+    <row r="36" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="55">
+        <v>1</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="55">
+        <v>26</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55">
+        <v>0</v>
+      </c>
+      <c r="I36" s="55">
+        <v>0</v>
+      </c>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55">
+        <v>0</v>
+      </c>
+      <c r="P36" s="59">
+        <v>45454</v>
+      </c>
+      <c r="Q36" s="55">
+        <v>1</v>
+      </c>
+      <c r="R36" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36" s="55">
+        <v>2756</v>
+      </c>
+      <c r="T36" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="55">
+        <v>1</v>
+      </c>
+      <c r="V36" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F37" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-    </row>
-    <row r="37" spans="1:22" ht="12" customHeight="1">
-      <c r="A37" s="56">
-        <v>1</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="56">
-        <v>27</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56">
-        <v>0</v>
-      </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56">
-        <v>0</v>
-      </c>
-      <c r="P37" s="60">
-        <v>45454</v>
-      </c>
-      <c r="Q37" s="56">
-        <v>1</v>
-      </c>
-      <c r="R37" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="56">
-        <v>2757</v>
-      </c>
-      <c r="T37" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" s="56">
-        <v>1</v>
-      </c>
-      <c r="V37" s="56">
-        <v>1</v>
-      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
     </row>
     <row r="38" spans="1:22" ht="12" customHeight="1">
       <c r="A38" s="56">
@@ -3418,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G38" s="56"/>
       <c r="H38" s="56">
@@ -3436,7 +3456,7 @@
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
@@ -3453,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="S38" s="56">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="T38" s="56" t="s">
         <v>7</v>
@@ -3476,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G39" s="56"/>
       <c r="H39" s="56">
@@ -3494,7 +3514,7 @@
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M39" s="56"/>
       <c r="N39" s="56"/>
@@ -3511,7 +3531,7 @@
         <v>6</v>
       </c>
       <c r="S39" s="56">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="T39" s="56" t="s">
         <v>7</v>
@@ -3534,25 +3554,25 @@
         <v>1</v>
       </c>
       <c r="D40" s="56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56">
         <v>0</v>
       </c>
       <c r="I40" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
       <c r="L40" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56"/>
@@ -3569,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="S40" s="56">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="T40" s="56" t="s">
         <v>7</v>
@@ -3592,25 +3612,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="56">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="56" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="56">
         <v>0</v>
       </c>
       <c r="I41" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
       <c r="L41" s="56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56"/>
@@ -3627,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="S41" s="56">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="T41" s="56" t="s">
         <v>7</v>
@@ -3640,28 +3660,86 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="12" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="A42" s="56">
+        <v>1</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="56">
+        <v>31</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="56" t="s">
+        <v>97</v>
+      </c>
       <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
+      <c r="H42" s="56">
+        <v>0</v>
+      </c>
+      <c r="I42" s="56">
+        <v>0</v>
+      </c>
       <c r="J42" s="56"/>
       <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
+      <c r="L42" s="56" t="s">
+        <v>98</v>
+      </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
+      <c r="O42" s="56">
+        <v>0</v>
+      </c>
+      <c r="P42" s="60">
+        <v>45454</v>
+      </c>
+      <c r="Q42" s="56">
+        <v>1</v>
+      </c>
+      <c r="R42" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42" s="56">
+        <v>2761</v>
+      </c>
+      <c r="T42" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="U42" s="56">
+        <v>1</v>
+      </c>
+      <c r="V42" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="12" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3670,1646 +3748,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
-  <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="162.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="48.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="22" width="5.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="49" customFormat="1">
-      <c r="A1" s="49">
-        <v>1</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="49">
-        <v>1</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="49">
-        <v>0</v>
-      </c>
-      <c r="I1" s="49">
-        <v>0</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="49">
-        <v>0</v>
-      </c>
-      <c r="P1" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q1" s="49">
-        <v>1</v>
-      </c>
-      <c r="R1" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="49">
-        <v>2762</v>
-      </c>
-      <c r="T1" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="49">
-        <v>1</v>
-      </c>
-      <c r="V1" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>2763</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>2764</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>2765</v>
-      </c>
-      <c r="T4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>2765</v>
-      </c>
-      <c r="T5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>2766</v>
-      </c>
-      <c r="T6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7">
-        <v>2766</v>
-      </c>
-      <c r="T7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="E8" t="s">
-        <v>259</v>
-      </c>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="E9" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10">
-        <v>470.82</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>2768</v>
-      </c>
-      <c r="T10" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11">
-        <v>2767</v>
-      </c>
-      <c r="T11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="61" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="64">
-        <v>1</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="64">
-        <v>15</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64">
-        <v>0</v>
-      </c>
-      <c r="I12" s="64">
-        <v>0</v>
-      </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64">
-        <v>0</v>
-      </c>
-      <c r="P12" s="65">
-        <v>45454</v>
-      </c>
-      <c r="Q12" s="64">
-        <v>1</v>
-      </c>
-      <c r="R12" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="64">
-        <v>2745</v>
-      </c>
-      <c r="T12" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="64">
-        <v>1</v>
-      </c>
-      <c r="V12" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="49" customFormat="1">
-      <c r="A13" s="49">
-        <v>1</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="49">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="49">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="49">
-        <v>0</v>
-      </c>
-      <c r="O13" s="49">
-        <v>0</v>
-      </c>
-      <c r="P13" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q13" s="49">
-        <v>1</v>
-      </c>
-      <c r="R13" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="49">
-        <v>2769</v>
-      </c>
-      <c r="T13" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="49">
-        <v>1</v>
-      </c>
-      <c r="V13" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="49" customFormat="1">
-      <c r="A14" s="49">
-        <v>1</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="49">
-        <v>9</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="49">
-        <v>0</v>
-      </c>
-      <c r="O14" s="49">
-        <v>0</v>
-      </c>
-      <c r="P14" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q14" s="49">
-        <v>1</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="49">
-        <v>2770</v>
-      </c>
-      <c r="T14" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="49">
-        <v>1</v>
-      </c>
-      <c r="V14" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="49" customFormat="1">
-      <c r="A15" s="49">
-        <v>1</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="49">
-        <v>10</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="49">
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
-        <v>0</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="49">
-        <v>5</v>
-      </c>
-      <c r="O15" s="49">
-        <v>0</v>
-      </c>
-      <c r="P15" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q15" s="49">
-        <v>1</v>
-      </c>
-      <c r="R15" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="49">
-        <v>2771</v>
-      </c>
-      <c r="T15" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="49">
-        <v>1</v>
-      </c>
-      <c r="V15" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16">
-        <v>2772</v>
-      </c>
-      <c r="T16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>2773</v>
-      </c>
-      <c r="T17" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18">
-        <v>2774</v>
-      </c>
-      <c r="T18" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19">
-        <v>2775</v>
-      </c>
-      <c r="T19" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20">
-        <v>2776</v>
-      </c>
-      <c r="T20" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="49" customFormat="1">
-      <c r="A21" s="49">
-        <v>1</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="49">
-        <v>16</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="L21" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="49">
-        <v>0</v>
-      </c>
-      <c r="P21" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q21" s="49">
-        <v>1</v>
-      </c>
-      <c r="R21" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="49">
-        <v>2777</v>
-      </c>
-      <c r="T21" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="49">
-        <v>1</v>
-      </c>
-      <c r="V21" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22">
-        <v>2778</v>
-      </c>
-      <c r="T22" t="s">
-        <v>7</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="49" customFormat="1">
-      <c r="A23" s="49">
-        <v>1</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="49">
-        <v>18</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="49">
-        <v>0</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="O23" s="49">
-        <v>0</v>
-      </c>
-      <c r="P23" s="52">
-        <v>45454</v>
-      </c>
-      <c r="Q23" s="49">
-        <v>1</v>
-      </c>
-      <c r="R23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="49">
-        <v>2779</v>
-      </c>
-      <c r="T23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="49">
-        <v>1</v>
-      </c>
-      <c r="V23" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" t="s">
-        <v>133</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24">
-        <v>2780</v>
-      </c>
-      <c r="T24" t="s">
-        <v>7</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25">
-        <v>2781</v>
-      </c>
-      <c r="T25" t="s">
-        <v>7</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26">
-        <v>21</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>137</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S26">
-        <v>2782</v>
-      </c>
-      <c r="T26" t="s">
-        <v>7</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>141</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>2783</v>
-      </c>
-      <c r="T28" t="s">
-        <v>7</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>143</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29">
-        <v>2784</v>
-      </c>
-      <c r="T29" t="s">
-        <v>7</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30">
-        <v>2785</v>
-      </c>
-      <c r="T30" t="s">
-        <v>7</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>147</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>2786</v>
-      </c>
-      <c r="T31" t="s">
-        <v>7</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>149</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" s="53">
-        <v>45454</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" t="s">
-        <v>6</v>
-      </c>
-      <c r="S32">
-        <v>2787</v>
-      </c>
-      <c r="T32" t="s">
-        <v>7</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5554,12 +3992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5825,7 +4263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X22"/>
   <sheetViews>
@@ -6554,4 +4992,1704 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="162.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="48.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="22" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="30.75" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="49" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="49">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49">
+        <v>0</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="49">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>1</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="49">
+        <v>2762</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="49">
+        <v>1</v>
+      </c>
+      <c r="V2" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>2763</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>2764</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>2765</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>2765</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>2766</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>2766</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="E10" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11">
+        <v>470.82</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>2768</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>2767</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="61" customFormat="1" ht="36" customHeight="1">
+      <c r="A13" s="64">
+        <v>1</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="64">
+        <v>15</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64">
+        <v>0</v>
+      </c>
+      <c r="I13" s="64">
+        <v>0</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="78">
+        <v>1</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64">
+        <v>0</v>
+      </c>
+      <c r="P13" s="65">
+        <v>45454</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>1</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="64">
+        <v>2745</v>
+      </c>
+      <c r="T13" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="64">
+        <v>1</v>
+      </c>
+      <c r="V13" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="49" customFormat="1">
+      <c r="A14" s="49">
+        <v>1</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="49">
+        <v>8</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="49">
+        <v>0</v>
+      </c>
+      <c r="O14" s="49">
+        <v>0</v>
+      </c>
+      <c r="P14" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>1</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="49">
+        <v>2769</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="49">
+        <v>1</v>
+      </c>
+      <c r="V14" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="49" customFormat="1">
+      <c r="A15" s="49">
+        <v>1</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="49">
+        <v>9</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49">
+        <v>0</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="49">
+        <v>0</v>
+      </c>
+      <c r="O15" s="49">
+        <v>0</v>
+      </c>
+      <c r="P15" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q15" s="49">
+        <v>1</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="49">
+        <v>2770</v>
+      </c>
+      <c r="T15" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="49">
+        <v>1</v>
+      </c>
+      <c r="V15" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="49" customFormat="1">
+      <c r="A16" s="49">
+        <v>1</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="49">
+        <v>10</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="49">
+        <v>0</v>
+      </c>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="49">
+        <v>5</v>
+      </c>
+      <c r="O16" s="49">
+        <v>0</v>
+      </c>
+      <c r="P16" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q16" s="49">
+        <v>1</v>
+      </c>
+      <c r="R16" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="49">
+        <v>2771</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="49">
+        <v>1</v>
+      </c>
+      <c r="V16" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="60">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>2772</v>
+      </c>
+      <c r="T17" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="79"/>
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>2773</v>
+      </c>
+      <c r="T18" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>2774</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>2775</v>
+      </c>
+      <c r="T20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>2776</v>
+      </c>
+      <c r="T21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="49" customFormat="1">
+      <c r="A22" s="49">
+        <v>1</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="49">
+        <v>16</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="49">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="49">
+        <v>0</v>
+      </c>
+      <c r="P22" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q22" s="49">
+        <v>1</v>
+      </c>
+      <c r="R22" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="49">
+        <v>2777</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="49">
+        <v>1</v>
+      </c>
+      <c r="V22" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>129</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>2778</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="49" customFormat="1">
+      <c r="A24" s="49">
+        <v>1</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="49">
+        <v>18</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0</v>
+      </c>
+      <c r="I24" s="49">
+        <v>0</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" s="49">
+        <v>0</v>
+      </c>
+      <c r="P24" s="52">
+        <v>45454</v>
+      </c>
+      <c r="Q24" s="49">
+        <v>1</v>
+      </c>
+      <c r="R24" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="49">
+        <v>2779</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="49">
+        <v>1</v>
+      </c>
+      <c r="V24" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>2780</v>
+      </c>
+      <c r="T25" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>2781</v>
+      </c>
+      <c r="T26" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>2782</v>
+      </c>
+      <c r="T27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>2783</v>
+      </c>
+      <c r="T29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>2784</v>
+      </c>
+      <c r="T30" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>145</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>2785</v>
+      </c>
+      <c r="T31" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>2786</v>
+      </c>
+      <c r="T32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="53">
+        <v>45454</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>2787</v>
+      </c>
+      <c r="T33" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bill Design.xlsx
+++ b/Bill Design.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tabBil" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Sale Bill Screen " sheetId="5" r:id="rId4"/>
     <sheet name="tabBilLine" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="300">
   <si>
     <t>ACE</t>
   </si>
@@ -198,9 +203,6 @@
     <t>tcnBilXchngRate</t>
   </si>
   <si>
-    <t>dec(7,4)(5)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bill Exchange Rate</t>
   </si>
   <si>
@@ -847,9 +849,6 @@
   </si>
   <si>
     <t>Bill Types</t>
-  </si>
-  <si>
-    <t>dec(10,5)(9)</t>
   </si>
   <si>
     <t>tabItem.tciItemF</t>
@@ -863,21 +862,103 @@
   <si>
     <t>R:Recover(someone else will pay)
 A:absorb(Perchase person will pay)</t>
+  </si>
+  <si>
+    <t>dec(7,4)</t>
+  </si>
+  <si>
+    <t>dec(10,5)</t>
+  </si>
+  <si>
+    <t>dec(10,2)</t>
+  </si>
+  <si>
+    <t>Bill From Location [data iD]</t>
+  </si>
+  <si>
+    <t>Bill To Location [data iD]</t>
+  </si>
+  <si>
+    <t>Beneficiar owner</t>
+  </si>
+  <si>
+    <t>Beneficial owner [data iD]</t>
+  </si>
+  <si>
+    <t>Bill Acknowledgement Document Idy</t>
+  </si>
+  <si>
+    <t>Bill Acknowledgement Document Date</t>
+  </si>
+  <si>
+    <t>Purchase Order Idy</t>
+  </si>
+  <si>
+    <t>Purchase Order Date</t>
+  </si>
+  <si>
+    <t>Employee,BizNty</t>
+  </si>
+  <si>
+    <t>Unique id of invoice</t>
+  </si>
+  <si>
+    <t>insilico</t>
+  </si>
+  <si>
+    <t>3isMicrosoft SQL Server Management Studio</t>
+  </si>
+  <si>
+    <t>Bil (data is) ACTiVe</t>
+  </si>
+  <si>
+    <t>Item [data iD]</t>
+  </si>
+  <si>
+    <t>Bill Line Description</t>
+  </si>
+  <si>
+    <t>Unit of Measurement</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bill Line Unit Price</t>
+  </si>
+  <si>
+    <t>Bill Line Value</t>
+  </si>
+  <si>
+    <t>Accounting Services'</t>
+  </si>
+  <si>
+    <t>Centimeter</t>
+  </si>
+  <si>
+    <t>Insilico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,13 +1048,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -989,12 +1063,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1163,11 +1231,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1187,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,10 +1285,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,22 +1300,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,141 +1324,152 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1675,9 +1754,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -1694,8 +1774,8 @@
     <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
@@ -1707,34 +1787,34 @@
   <sheetData>
     <row r="1" spans="1:22" ht="12" customHeight="1" thickBot="1">
       <c r="E1" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>160</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="49" customFormat="1" ht="12" customHeight="1" thickTop="1">
@@ -1770,12 +1850,14 @@
       <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="55">
+        <v>1</v>
+      </c>
       <c r="N2" s="55"/>
       <c r="O2" s="55">
         <v>0</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="58">
         <v>45454</v>
       </c>
       <c r="Q2" s="55">
@@ -1830,14 +1912,14 @@
       <c r="L3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="56" t="s">
-        <v>12</v>
+      <c r="M3" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56">
         <v>0</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="59">
         <v>45454</v>
       </c>
       <c r="Q3" s="56">
@@ -1867,23 +1949,23 @@
       <c r="E4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="73" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
-      <c r="P4" s="60"/>
+      <c r="P4" s="59"/>
       <c r="Q4" s="56"/>
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
@@ -1924,14 +2006,16 @@
       <c r="L5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56" t="s">
+      <c r="M5" s="56">
+        <v>1</v>
+      </c>
+      <c r="N5" s="73" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="56">
         <v>0</v>
       </c>
-      <c r="P5" s="60">
+      <c r="P5" s="59">
         <v>45454</v>
       </c>
       <c r="Q5" s="56">
@@ -1959,7 +2043,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>3</v>
@@ -1973,7 +2057,7 @@
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
-      <c r="P6" s="60"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
       <c r="S6" s="56"/>
@@ -2014,14 +2098,16 @@
       <c r="L7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56" t="s">
+      <c r="M7" s="56">
+        <v>1</v>
+      </c>
+      <c r="N7" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="56">
         <v>0</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P7" s="59">
         <v>45454</v>
       </c>
       <c r="Q7" s="56">
@@ -2049,7 +2135,7 @@
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="56" t="s">
         <v>3</v>
@@ -2063,7 +2149,7 @@
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
-      <c r="P8" s="60"/>
+      <c r="P8" s="59"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
@@ -2087,11 +2173,15 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
+      <c r="L9" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1</v>
+      </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
-      <c r="P9" s="60"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
@@ -2105,7 +2195,7 @@
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>3</v>
@@ -2119,7 +2209,7 @@
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
-      <c r="P10" s="60"/>
+      <c r="P10" s="59"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
@@ -2143,11 +2233,15 @@
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="L11" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1</v>
+      </c>
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
-      <c r="P11" s="60"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="56"/>
       <c r="S11" s="56"/>
@@ -2161,7 +2255,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>3</v>
@@ -2175,7 +2269,7 @@
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
-      <c r="P12" s="60"/>
+      <c r="P12" s="59"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
@@ -2197,15 +2291,19 @@
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="73" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>286</v>
+      </c>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
-      <c r="P13" s="60"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="56"/>
       <c r="S13" s="56"/>
@@ -2218,7 +2316,7 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="73" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="56" t="s">
@@ -2229,11 +2327,15 @@
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="56">
+        <v>1</v>
+      </c>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
-      <c r="P14" s="60"/>
+      <c r="P14" s="59"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="56"/>
       <c r="S14" s="56"/>
@@ -2246,8 +2348,8 @@
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
-      <c r="E15" s="72" t="s">
-        <v>268</v>
+      <c r="E15" s="69" t="s">
+        <v>267</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>3</v>
@@ -2261,7 +2363,7 @@
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
-      <c r="P15" s="60"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="56"/>
       <c r="S15" s="56"/>
@@ -2307,7 +2409,7 @@
       <c r="O16" s="56">
         <v>0</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="59">
         <v>45454</v>
       </c>
       <c r="Q16" s="56">
@@ -2369,7 +2471,7 @@
       <c r="O17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="58">
         <v>45454</v>
       </c>
       <c r="Q17" s="55">
@@ -2422,14 +2524,16 @@
       <c r="L18" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56" t="s">
+      <c r="M18" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="N18" s="73" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="56">
         <v>0</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="59">
         <v>45454</v>
       </c>
       <c r="Q18" s="56">
@@ -2491,7 +2595,7 @@
       <c r="O19" s="56">
         <v>0</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="59">
         <v>45454</v>
       </c>
       <c r="Q19" s="56">
@@ -2518,8 +2622,8 @@
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
-      <c r="E20" s="58" t="s">
-        <v>269</v>
+      <c r="E20" s="57" t="s">
+        <v>268</v>
       </c>
       <c r="F20" s="56" t="s">
         <v>40</v>
@@ -2529,11 +2633,13 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="L20" s="56" t="s">
+        <v>282</v>
+      </c>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
-      <c r="P20" s="60"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="56"/>
       <c r="R20" s="56"/>
       <c r="S20" s="56"/>
@@ -2546,8 +2652,8 @@
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
-      <c r="E21" s="58" t="s">
-        <v>270</v>
+      <c r="E21" s="57" t="s">
+        <v>269</v>
       </c>
       <c r="F21" s="56" t="s">
         <v>44</v>
@@ -2557,11 +2663,13 @@
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="L21" s="56" t="s">
+        <v>283</v>
+      </c>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
-      <c r="P21" s="60"/>
+      <c r="P21" s="59"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="56"/>
@@ -2574,8 +2682,8 @@
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="58" t="s">
-        <v>254</v>
+      <c r="E22" s="57" t="s">
+        <v>253</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>40</v>
@@ -2585,11 +2693,13 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="L22" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
-      <c r="P22" s="60"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="56"/>
       <c r="R22" s="56"/>
       <c r="S22" s="56"/>
@@ -2602,8 +2712,8 @@
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="58" t="s">
-        <v>255</v>
+      <c r="E23" s="57" t="s">
+        <v>254</v>
       </c>
       <c r="F23" s="56" t="s">
         <v>44</v>
@@ -2613,11 +2723,13 @@
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="L23" s="73" t="s">
+        <v>285</v>
+      </c>
       <c r="M23" s="56"/>
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
-      <c r="P23" s="60"/>
+      <c r="P23" s="59"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="56"/>
@@ -2663,7 +2775,7 @@
       <c r="O24" s="56">
         <v>0</v>
       </c>
-      <c r="P24" s="60">
+      <c r="P24" s="59">
         <v>45454</v>
       </c>
       <c r="Q24" s="56">
@@ -2723,7 +2835,7 @@
       <c r="O25" s="56">
         <v>0</v>
       </c>
-      <c r="P25" s="60">
+      <c r="P25" s="59">
         <v>45454</v>
       </c>
       <c r="Q25" s="56">
@@ -2781,7 +2893,7 @@
       <c r="O26" s="56">
         <v>0</v>
       </c>
-      <c r="P26" s="60">
+      <c r="P26" s="59">
         <v>45454</v>
       </c>
       <c r="Q26" s="56">
@@ -2819,8 +2931,8 @@
       <c r="E27" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>55</v>
+      <c r="F27" s="73" t="s">
+        <v>275</v>
       </c>
       <c r="G27" s="56"/>
       <c r="H27" s="56">
@@ -2832,7 +2944,7 @@
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
       <c r="L27" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="56">
         <v>1</v>
@@ -2841,7 +2953,7 @@
       <c r="O27" s="56">
         <v>0</v>
       </c>
-      <c r="P27" s="60">
+      <c r="P27" s="59">
         <v>45454</v>
       </c>
       <c r="Q27" s="56">
@@ -2877,10 +2989,10 @@
         <v>18</v>
       </c>
       <c r="E28" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="55" t="s">
         <v>61</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>62</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="55">
@@ -2892,16 +3004,16 @@
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" s="55"/>
       <c r="N28" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O28" s="55">
         <v>0</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="58">
         <v>45454</v>
       </c>
       <c r="Q28" s="55">
@@ -2937,10 +3049,10 @@
         <v>19</v>
       </c>
       <c r="E29" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="55" t="s">
         <v>65</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>66</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="55">
@@ -2952,16 +3064,16 @@
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
       <c r="L29" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M29" s="55"/>
       <c r="N29" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O29" s="55">
         <v>0</v>
       </c>
-      <c r="P29" s="59">
+      <c r="P29" s="58">
         <v>45454</v>
       </c>
       <c r="Q29" s="55">
@@ -2997,10 +3109,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="56" t="s">
         <v>69</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>70</v>
       </c>
       <c r="G30" s="56"/>
       <c r="H30" s="56">
@@ -3011,19 +3123,19 @@
       </c>
       <c r="J30" s="56"/>
       <c r="K30" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="56" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="L30" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="74" t="s">
+        <v>12</v>
       </c>
       <c r="N30" s="56"/>
       <c r="O30" s="56">
         <v>0</v>
       </c>
-      <c r="P30" s="60">
+      <c r="P30" s="59">
         <v>45454</v>
       </c>
       <c r="Q30" s="56">
@@ -3058,8 +3170,8 @@
       <c r="D31" s="56">
         <v>21</v>
       </c>
-      <c r="E31" s="57" t="s">
-        <v>72</v>
+      <c r="E31" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="F31" s="56" t="s">
         <v>17</v>
@@ -3074,14 +3186,16 @@
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
       <c r="L31" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="M31" s="56"/>
+        <v>72</v>
+      </c>
+      <c r="M31" s="56">
+        <v>1</v>
+      </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56">
         <v>0</v>
       </c>
-      <c r="P31" s="60">
+      <c r="P31" s="59">
         <v>45454</v>
       </c>
       <c r="Q31" s="56">
@@ -3116,8 +3230,8 @@
       <c r="D32" s="56">
         <v>22</v>
       </c>
-      <c r="E32" s="66" t="s">
-        <v>256</v>
+      <c r="E32" s="73" t="s">
+        <v>255</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>17</v>
@@ -3130,18 +3244,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="56"/>
+      <c r="L32" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="56"/>
+      <c r="M32" s="56">
+        <v>1</v>
+      </c>
       <c r="N32" s="56"/>
       <c r="O32" s="56">
         <v>0</v>
       </c>
-      <c r="P32" s="60">
+      <c r="P32" s="59">
         <v>45454</v>
       </c>
       <c r="Q32" s="56">
@@ -3176,8 +3292,8 @@
       <c r="D33" s="56">
         <v>23</v>
       </c>
-      <c r="E33" s="57" t="s">
-        <v>76</v>
+      <c r="E33" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="F33" s="56" t="s">
         <v>17</v>
@@ -3190,18 +3306,20 @@
         <v>0</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="M33" s="56">
+        <v>1</v>
+      </c>
       <c r="N33" s="56"/>
       <c r="O33" s="56">
         <v>0</v>
       </c>
-      <c r="P33" s="60">
+      <c r="P33" s="59">
         <v>45454</v>
       </c>
       <c r="Q33" s="56">
@@ -3236,8 +3354,8 @@
       <c r="D34" s="55">
         <v>24</v>
       </c>
-      <c r="E34" s="63" t="s">
-        <v>78</v>
+      <c r="E34" s="51" t="s">
+        <v>77</v>
       </c>
       <c r="F34" s="55" t="s">
         <v>17</v>
@@ -3252,14 +3370,14 @@
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
       <c r="L34" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
       <c r="O34" s="55">
         <v>0</v>
       </c>
-      <c r="P34" s="59">
+      <c r="P34" s="58">
         <v>45454</v>
       </c>
       <c r="Q34" s="55">
@@ -3295,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="55" t="s">
         <v>9</v>
@@ -3310,14 +3428,14 @@
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
       <c r="L35" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
       <c r="O35" s="55">
         <v>0</v>
       </c>
-      <c r="P35" s="59">
+      <c r="P35" s="58">
         <v>45454</v>
       </c>
       <c r="Q35" s="55">
@@ -3353,10 +3471,10 @@
         <v>26</v>
       </c>
       <c r="E36" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="55" t="s">
         <v>82</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>83</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="55">
@@ -3368,14 +3486,14 @@
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="55"/>
       <c r="O36" s="55">
         <v>0</v>
       </c>
-      <c r="P36" s="59">
+      <c r="P36" s="58">
         <v>45454</v>
       </c>
       <c r="Q36" s="55">
@@ -3403,10 +3521,10 @@
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -3414,9 +3532,9 @@
       <c r="J37" s="51"/>
       <c r="K37" s="51"/>
       <c r="L37" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="M37" s="78"/>
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="54"/>
@@ -3441,10 +3559,10 @@
         <v>27</v>
       </c>
       <c r="E38" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="56" t="s">
         <v>87</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>88</v>
       </c>
       <c r="G38" s="56"/>
       <c r="H38" s="56">
@@ -3456,14 +3574,16 @@
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="M38" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="M38" s="79">
+        <v>45497.543136574073</v>
+      </c>
       <c r="N38" s="56"/>
       <c r="O38" s="56">
         <v>0</v>
       </c>
-      <c r="P38" s="60">
+      <c r="P38" s="59">
         <v>45454</v>
       </c>
       <c r="Q38" s="56">
@@ -3499,7 +3619,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="56" t="s">
         <v>17</v>
@@ -3514,14 +3634,16 @@
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="M39" s="56">
+        <v>1</v>
+      </c>
       <c r="N39" s="56"/>
       <c r="O39" s="56">
         <v>0</v>
       </c>
-      <c r="P39" s="60">
+      <c r="P39" s="59">
         <v>45454</v>
       </c>
       <c r="Q39" s="56">
@@ -3557,10 +3679,10 @@
         <v>29</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56">
@@ -3572,14 +3694,16 @@
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
       <c r="L40" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="M40" s="56"/>
+        <v>92</v>
+      </c>
+      <c r="M40" s="73" t="s">
+        <v>288</v>
+      </c>
       <c r="N40" s="56"/>
       <c r="O40" s="56">
         <v>0</v>
       </c>
-      <c r="P40" s="60">
+      <c r="P40" s="59">
         <v>45454</v>
       </c>
       <c r="Q40" s="56">
@@ -3615,7 +3739,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="56" t="s">
         <v>17</v>
@@ -3630,14 +3754,16 @@
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
       <c r="L41" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" s="56"/>
+        <v>94</v>
+      </c>
+      <c r="M41" s="56">
+        <v>1</v>
+      </c>
       <c r="N41" s="56"/>
       <c r="O41" s="56">
         <v>0</v>
       </c>
-      <c r="P41" s="60">
+      <c r="P41" s="59">
         <v>45454</v>
       </c>
       <c r="Q41" s="56">
@@ -3673,10 +3799,10 @@
         <v>31</v>
       </c>
       <c r="E42" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="56" t="s">
         <v>96</v>
-      </c>
-      <c r="F42" s="56" t="s">
-        <v>97</v>
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56">
@@ -3688,14 +3814,16 @@
       <c r="J42" s="56"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="M42" s="56"/>
+        <v>97</v>
+      </c>
+      <c r="M42" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="N42" s="56"/>
       <c r="O42" s="56">
         <v>0</v>
       </c>
-      <c r="P42" s="60">
+      <c r="P42" s="59">
         <v>45454</v>
       </c>
       <c r="Q42" s="56">
@@ -3743,7 +3871,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3751,7 +3879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3765,11 +3893,11 @@
     <row r="1" spans="1:11" s="30" customFormat="1">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="34">
         <f>SUM(E3:E30)</f>
@@ -3785,45 +3913,45 @@
     <row r="2" spans="1:11" s="30" customFormat="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="48" t="s">
         <v>160</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="E3" s="43">
         <v>1</v>
@@ -3831,13 +3959,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3845,13 +3973,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>169</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>170</v>
       </c>
       <c r="E5" s="44">
         <v>4</v>
@@ -3859,53 +3987,53 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E6" s="44">
         <v>4</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E7" s="44">
         <v>4</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -3913,13 +4041,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="E9" s="44">
         <v>8</v>
@@ -3927,13 +4055,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E10" s="44">
         <v>4</v>
@@ -3941,13 +4069,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>183</v>
-      </c>
       <c r="D11" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="44">
         <v>50</v>
@@ -3955,16 +4083,16 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
         <v>184</v>
       </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
       <c r="C12" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E12" s="44">
         <v>4</v>
@@ -3972,13 +4100,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>187</v>
-      </c>
       <c r="D13" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="44">
         <v>150</v>
@@ -4008,11 +4136,11 @@
     <row r="1" spans="1:11" s="30" customFormat="1">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="34">
         <f>SUM(E3:E31)</f>
@@ -4028,45 +4156,45 @@
     <row r="2" spans="1:11" s="30" customFormat="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="48" t="s">
         <v>160</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="E3" s="43">
         <v>1</v>
@@ -4074,50 +4202,50 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E4" s="44">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E5" s="44">
         <v>4</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -4128,10 +4256,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -4142,13 +4270,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
         <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>195</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -4156,13 +4284,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
         <v>196</v>
-      </c>
-      <c r="D9" t="s">
-        <v>197</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -4170,13 +4298,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -4184,13 +4312,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="E11" s="44">
         <v>8</v>
@@ -4198,13 +4326,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E12" s="44">
         <v>4</v>
@@ -4212,13 +4340,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="44">
         <v>50</v>
@@ -4226,16 +4354,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="E14" s="44">
         <v>4</v>
@@ -4243,13 +4371,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="44">
         <v>150</v>
@@ -4268,7 +4396,7 @@
   <dimension ref="B1:X22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" customHeight="1"/>
@@ -4306,7 +4434,7 @@
     <row r="2" spans="2:24" ht="21" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -4316,19 +4444,19 @@
       <c r="I2" s="8"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -4339,7 +4467,7 @@
     <row r="3" spans="2:24" ht="21" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4349,19 +4477,19 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -4372,7 +4500,7 @@
     <row r="4" spans="2:24" ht="21" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4382,7 +4510,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -4404,7 +4532,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="71"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -4426,16 +4554,16 @@
     <row r="6" spans="2:24" ht="21" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="67" t="s">
-        <v>216</v>
+      <c r="H6" s="64" t="s">
+        <v>215</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -4457,48 +4585,48 @@
     <row r="7" spans="2:24" ht="21" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9"/>
       <c r="H7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="J7" s="86"/>
+      <c r="K7" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="L7" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="18" t="s">
+      <c r="Q7" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="R7" s="22"/>
       <c r="S7" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="T7" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="U7" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="V7" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="21"/>
@@ -4507,7 +4635,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4515,19 +4643,19 @@
       <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="68" t="s">
+      <c r="L8" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -4541,7 +4669,7 @@
         <f t="shared" ref="U8:U10" si="0">S8-T8</f>
         <v>49500</v>
       </c>
-      <c r="V8" s="69">
+      <c r="V8" s="66">
         <v>2</v>
       </c>
       <c r="W8" s="11"/>
@@ -4551,29 +4679,29 @@
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
       <c r="H9" s="15">
         <v>2</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -4587,7 +4715,7 @@
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="V9" s="69">
+      <c r="V9" s="66">
         <v>2</v>
       </c>
       <c r="W9" s="11"/>
@@ -4597,7 +4725,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4605,19 +4733,19 @@
       <c r="H10" s="15">
         <v>3</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4631,7 +4759,7 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="V10" s="69">
+      <c r="V10" s="66">
         <v>1</v>
       </c>
       <c r="W10" s="11"/>
@@ -4641,7 +4769,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4656,7 +4784,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="25">
@@ -4678,10 +4806,10 @@
     <row r="12" spans="2:24" ht="21" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -4696,12 +4824,12 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
-      <c r="U12" s="70">
+      <c r="U12" s="67">
         <v>25000</v>
       </c>
       <c r="V12" s="15"/>
@@ -4711,10 +4839,10 @@
     <row r="13" spans="2:24" ht="21" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="75"/>
+      <c r="D13" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="85"/>
       <c r="F13" s="11"/>
       <c r="G13" s="9"/>
       <c r="H13" s="15"/>
@@ -4727,7 +4855,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -4757,7 +4885,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -4773,7 +4901,7 @@
     <row r="15" spans="2:24" ht="21" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -4825,7 +4953,7 @@
     <row r="17" spans="2:24" ht="21" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -4877,7 +5005,7 @@
     <row r="19" spans="2:24" ht="21" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -4904,7 +5032,7 @@
     <row r="20" spans="2:24" ht="21" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -4998,9 +5126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5014,7 +5142,7 @@
     <col min="10" max="10" width="162.140625" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="48.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.42578125" customWidth="1"/>
     <col min="16" max="16" width="7.140625" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" customWidth="1"/>
@@ -5024,46 +5152,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="30.75" thickBot="1">
       <c r="A1" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>160</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="49" customFormat="1" ht="15.75" thickTop="1">
@@ -5074,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="49">
         <v>1</v>
@@ -5127,15 +5255,15 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>9</v>
       </c>
       <c r="H3">
@@ -5147,8 +5275,11 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>60</v>
+      <c r="L3" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>12</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -5183,15 +5314,15 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="75" t="s">
         <v>17</v>
       </c>
       <c r="H4">
@@ -5201,10 +5332,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="L4" t="s">
-        <v>102</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -5239,15 +5373,15 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>17</v>
       </c>
       <c r="H5">
@@ -5256,8 +5390,14 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="77" t="s">
-        <v>190</v>
+      <c r="J5" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -5292,15 +5432,15 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>17</v>
       </c>
       <c r="H6">
@@ -5309,8 +5449,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="77" t="s">
-        <v>273</v>
+      <c r="J6" s="70" t="s">
+        <v>271</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -5345,22 +5485,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
+      <c r="E7" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>297</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -5395,15 +5541,15 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>14</v>
       </c>
       <c r="H8">
@@ -5411,6 +5557,12 @@
       </c>
       <c r="I8">
         <v>0</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>298</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -5438,26 +5590,38 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="E9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" t="s">
-        <v>272</v>
+      <c r="E9" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="E10" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
+      <c r="E10" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>277</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10">
+        <v>1300</v>
       </c>
       <c r="P10" s="53"/>
     </row>
@@ -5469,25 +5633,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="75" t="s">
         <v>107</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>108</v>
       </c>
       <c r="M11">
         <v>470.82</v>
@@ -5525,22 +5689,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
+      <c r="E12" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>277</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" s="80">
+        <v>130894</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5567,65 +5737,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A13" s="64">
-        <v>1</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="64">
+    <row r="13" spans="1:22" s="60" customFormat="1" ht="36" customHeight="1">
+      <c r="A13" s="62">
+        <v>1</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="62">
         <v>15</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="64" t="s">
+      <c r="E13" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62">
+        <v>0</v>
+      </c>
+      <c r="I13" s="62">
+        <v>0</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64">
-        <v>0</v>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64" t="s">
+      <c r="L13" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="78">
-        <v>1</v>
-      </c>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64">
-        <v>0</v>
-      </c>
-      <c r="P13" s="65">
+      <c r="M13" s="71">
+        <v>1</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62">
+        <v>0</v>
+      </c>
+      <c r="P13" s="63">
         <v>45454</v>
       </c>
-      <c r="Q13" s="64">
-        <v>1</v>
-      </c>
-      <c r="R13" s="64" t="s">
+      <c r="Q13" s="62">
+        <v>1</v>
+      </c>
+      <c r="R13" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="62">
         <v>2745</v>
       </c>
-      <c r="T13" s="64" t="s">
+      <c r="T13" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="64">
-        <v>1</v>
-      </c>
-      <c r="V13" s="64">
+      <c r="U13" s="62">
+        <v>1</v>
+      </c>
+      <c r="V13" s="62">
         <v>1</v>
       </c>
     </row>
@@ -5637,25 +5807,25 @@
         <v>0</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="49">
         <v>8</v>
       </c>
       <c r="E14" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>109</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="M14" s="49">
         <v>0</v>
@@ -5693,25 +5863,25 @@
         <v>0</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="49">
         <v>9</v>
       </c>
       <c r="E15" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49">
+        <v>0</v>
+      </c>
+      <c r="L15" s="49" t="s">
         <v>111</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="49">
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
-        <v>0</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="49">
         <v>0</v>
@@ -5749,25 +5919,25 @@
         <v>0</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="49">
         <v>10</v>
       </c>
       <c r="E16" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="H16" s="49">
+        <v>0</v>
+      </c>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="L16" s="49" t="s">
         <v>114</v>
-      </c>
-      <c r="H16" s="49">
-        <v>0</v>
-      </c>
-      <c r="I16" s="49">
-        <v>0</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>115</v>
       </c>
       <c r="M16" s="49">
         <v>5</v>
@@ -5805,15 +5975,15 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="75" t="s">
         <v>14</v>
       </c>
       <c r="H17">
@@ -5822,11 +5992,14 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="L17" s="77" t="s">
-        <v>275</v>
+      <c r="K17" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="49">
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -5861,15 +6034,15 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>9</v>
       </c>
       <c r="H18">
@@ -5878,9 +6051,9 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18" s="79"/>
-      <c r="L18" t="s">
-        <v>119</v>
+      <c r="K18" s="72"/>
+      <c r="L18" s="75" t="s">
+        <v>118</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -5915,25 +6088,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
+      <c r="M19" s="49">
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -5968,25 +6144,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>120</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>121</v>
+      <c r="M20" s="49">
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6021,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" s="62" t="s">
-        <v>122</v>
+      <c r="E21" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -6039,10 +6218,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" t="s">
         <v>123</v>
-      </c>
-      <c r="L21" t="s">
-        <v>124</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6077,25 +6256,25 @@
         <v>0</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="49">
         <v>16</v>
       </c>
       <c r="E22" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="H22" s="49">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="L22" s="49" t="s">
         <v>126</v>
-      </c>
-      <c r="H22" s="49">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>127</v>
       </c>
       <c r="O22" s="49">
         <v>0</v>
@@ -6130,25 +6309,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>129</v>
+      <c r="M23">
+        <v>12345678</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6183,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="49">
         <v>18</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>17</v>
@@ -6201,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L24" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O24" s="49">
         <v>0</v>
@@ -6239,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <v>19</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>253</v>
+      <c r="E25" s="61" t="s">
+        <v>252</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -6257,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" t="s">
         <v>132</v>
-      </c>
-      <c r="L25" t="s">
-        <v>133</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -6295,25 +6477,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26">
         <v>20</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>135</v>
+      <c r="M26">
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6348,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
-      <c r="E27" s="62" t="s">
-        <v>136</v>
+      <c r="E27" s="61" t="s">
+        <v>135</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -6366,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -6399,10 +6584,10 @@
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
@@ -6410,7 +6595,7 @@
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
@@ -6431,25 +6616,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="F29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
+      <c r="M29" s="81">
+        <v>45497.543136574073</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -6484,25 +6672,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>142</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>143</v>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6537,25 +6728,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>24</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>145</v>
+      <c r="M31" t="s">
+        <v>299</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -6590,25 +6784,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
         <v>146</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>147</v>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6643,25 +6840,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>149</v>
+      <c r="M33" t="s">
+        <v>289</v>
       </c>
       <c r="O33">
         <v>0</v>
